--- a/Assets/_Project/ExcelDesign/ShopDesign.xlsx
+++ b/Assets/_Project/ExcelDesign/ShopDesign.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -49,10 +49,16 @@
     <t>hoang2</t>
   </si>
   <si>
-    <t>3123ss</t>
+    <t>sdd</t>
   </si>
   <si>
     <t>hihi</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>dsads</t>
   </si>
 </sst>
 </file>
@@ -60,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -74,6 +80,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -83,60 +126,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,9 +202,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +239,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,55 +371,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,97 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,15 +444,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +487,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,15 +533,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,130 +551,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="14.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="10.1428571428571" customWidth="1"/>
@@ -1057,6 +1063,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Assets/_Project/ExcelDesign/ShopDesign.xlsx
+++ b/Assets/_Project/ExcelDesign/ShopDesign.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resources\match 3 merge\Assets\_Project\ExcelDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyUnitProject\match_3\Assets\_Project\ExcelDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C307453-BF82-4713-831E-38F67A1D82E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopDesign" sheetId="1" r:id="rId1"/>
@@ -19,34 +20,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Recived</t>
   </si>
   <si>
-    <t>ITEM_01</t>
-  </si>
-  <si>
-    <t>ITEM_02</t>
-  </si>
-  <si>
     <t>ITEM_SHUFFLE:1</t>
   </si>
   <si>
     <t>ITEM_UNDO:1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>[KEY]</t>
+  </si>
+  <si>
+    <t>PACK_01</t>
+  </si>
+  <si>
+    <t>PACK_02</t>
+  </si>
+  <si>
+    <t>PACK_03</t>
+  </si>
+  <si>
+    <t>ITEM_SUGGEST:1</t>
+  </si>
+  <si>
+    <t>PACK_04</t>
+  </si>
+  <si>
+    <t>.Price:Int</t>
+  </si>
+  <si>
+    <t>ITEM_SHUFFLE:1,ITEM_UNDO:1,ITEM_SUGGEST:1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,8 +70,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,8 +99,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7F50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,17 +120,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -364,57 +429,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2500</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7" s="2"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="M13" s="2"/>
+      <c r="M13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_Project/ExcelDesign/ShopDesign.xlsx
+++ b/Assets/_Project/ExcelDesign/ShopDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyUnitProject\match_3\Assets\_Project\ExcelDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C307453-BF82-4713-831E-38F67A1D82E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF80F87-DFA7-47A2-8222-22A13A6FFD52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Recived</t>
-  </si>
-  <si>
     <t>ITEM_SHUFFLE:1</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>ITEM_SHUFFLE:1,ITEM_UNDO:1,ITEM_SUGGEST:1</t>
+  </si>
+  <si>
+    <t>Rewards</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -447,66 +447,64 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1"/>
-      <c r="C1"/>
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7">
         <v>1000</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1000</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2500</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13">
